--- a/data/mic/2025-09-02 12.34.22 Run.xlsx
+++ b/data/mic/2025-09-02 12.34.22 Run.xlsx
@@ -72,7 +72,7 @@
     <t>File Exported</t>
   </si>
   <si>
-    <t>13/11/2025 0:15:03</t>
+    <t>18/11/2025 21:11:02</t>
   </si>
   <si>
     <t>Software Version</t>
